--- a/03.LEZIONE PRATICA W1D2/ESERCIZIO_M2-1-1_dati.xlsx
+++ b/03.LEZIONE PRATICA W1D2/ESERCIZIO_M2-1-1_dati.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgian\Desktop\CORSO EPICODE\MODULI\Excel\EPICODE_EXCEL_DAPT0125\04.Pratica1402\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgian\Desktop\CORSO EPICODE\MODULI\Excel\EPICODE_EXCEL_DAPT0125\03.LEZIONE PRATICA W1D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D74BFB-2B72-4061-B6DF-259E592354E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FA55E4-6869-4FAF-A868-8D3CCBF2A067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3504" yWindow="3240" windowWidth="17280" windowHeight="8796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assoluti_Iva" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="577">
   <si>
     <t>MONITOR</t>
   </si>
@@ -1783,6 +1783,9 @@
   <si>
     <t>Totale Fatturato</t>
   </si>
+  <si>
+    <t>NO</t>
+  </si>
 </sst>
 </file>
 
@@ -1902,7 +1905,10 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1933,9 +1939,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Giudizio-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1949,13 +1955,65 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>231533</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>89704</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Immagine 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68A31156-E730-AA94-D247-821A37B99C7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17061180" y="640080"/>
+          <a:ext cx="7363853" cy="1209844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:C8" headerRowCount="0">
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:D8" headerRowCount="0">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" dataDxfId="1">
       <calculatedColumnFormula>IF(Table_1[[#This Row],[Column2]]=0,"RESPINTO",IF(Table_1[[#This Row],[Column2]]=40,"SUFFICIENTE",IF(Table_1[[#This Row],[Column2]]=60,"DISCRETO",IF(Table_1[[#This Row],[Column2]]=70,"BUONO","NO"))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{D0677F6B-469C-4E5D-9C0E-8B3DAA271D70}" name="Colonna1" dataDxfId="0">
+      <calculatedColumnFormula>_xlfn.IFS(Table_1[[#This Row],[Column2]]=40,"SUFFICIENTE",Table_1[[#This Row],[Column2]]=60,"DISCRETO",Table_1[[#This Row],[Column2]]=70,"BUONO",Table_1[[#This Row],[Column2]]&lt;40,"RESPINTO")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Giudizio-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -2167,9 +2225,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2178,7 +2236,7 @@
     <col min="2" max="2" width="54.44140625" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="89.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5546875" customWidth="1"/>
     <col min="7" max="7" width="7.109375" customWidth="1"/>
     <col min="8" max="26" width="8.6640625" customWidth="1"/>
@@ -2229,8 +2287,8 @@
         <v>281000</v>
       </c>
       <c r="D2" s="5">
-        <f>C2*0.2</f>
-        <v>56200</v>
+        <f>(C2*20)/120</f>
+        <v>46833.333333333336</v>
       </c>
       <c r="E2" s="4" t="str">
         <f>_xlfn.CONCAT(A2," ",B2)</f>
@@ -2269,8 +2327,8 @@
         <v>323000</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" ref="D3:D66" si="0">C3*0.2</f>
-        <v>64600</v>
+        <f t="shared" ref="D3:D66" si="0">(C3*20)/120</f>
+        <v>53833.333333333336</v>
       </c>
       <c r="E3" s="4" t="str">
         <f>_xlfn.CONCAT(A3," ",B3)</f>
@@ -2310,7 +2368,7 @@
       </c>
       <c r="D4" s="5">
         <f t="shared" si="0"/>
-        <v>68800</v>
+        <v>57333.333333333336</v>
       </c>
       <c r="E4" s="4" t="str">
         <f>_xlfn.CONCAT(A4," ",B4)</f>
@@ -2350,7 +2408,7 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="0"/>
-        <v>72200</v>
+        <v>60166.666666666664</v>
       </c>
       <c r="E5" s="4" t="str">
         <f t="shared" ref="E5:E68" si="1">_xlfn.CONCAT(A5," ",B5)</f>
@@ -2390,7 +2448,7 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>104200</v>
+        <v>86833.333333333328</v>
       </c>
       <c r="E6" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2430,7 +2488,7 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>105400</v>
+        <v>87833.333333333328</v>
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2470,7 +2528,7 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>125200</v>
+        <v>104333.33333333333</v>
       </c>
       <c r="E8" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2510,7 +2568,7 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>131200</v>
+        <v>109333.33333333333</v>
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2550,7 +2608,7 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="0"/>
-        <v>133200</v>
+        <v>111000</v>
       </c>
       <c r="E10" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2590,7 +2648,7 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="0"/>
-        <v>176400</v>
+        <v>147000</v>
       </c>
       <c r="E11" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2630,7 +2688,7 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="0"/>
-        <v>221600</v>
+        <v>184666.66666666666</v>
       </c>
       <c r="E12" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2670,7 +2728,7 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="0"/>
-        <v>263200</v>
+        <v>219333.33333333334</v>
       </c>
       <c r="E13" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2710,7 +2768,7 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="0"/>
-        <v>318800</v>
+        <v>265666.66666666669</v>
       </c>
       <c r="E14" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2750,7 +2808,7 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="0"/>
-        <v>543800</v>
+        <v>453166.66666666669</v>
       </c>
       <c r="E15" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2826,7 +2884,7 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" si="0"/>
-        <v>818400</v>
+        <v>682000</v>
       </c>
       <c r="E17" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2866,7 +2924,7 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" si="0"/>
-        <v>2771800</v>
+        <v>2309833.3333333335</v>
       </c>
       <c r="E18" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2942,7 +3000,7 @@
       </c>
       <c r="D20" s="5">
         <f t="shared" si="0"/>
-        <v>33400</v>
+        <v>27833.333333333332</v>
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2982,7 +3040,7 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" si="0"/>
-        <v>40400</v>
+        <v>33666.666666666664</v>
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3022,7 +3080,7 @@
       </c>
       <c r="D22" s="5">
         <f t="shared" si="0"/>
-        <v>40600</v>
+        <v>33833.333333333336</v>
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3062,7 +3120,7 @@
       </c>
       <c r="D23" s="5">
         <f t="shared" si="0"/>
-        <v>46800</v>
+        <v>39000</v>
       </c>
       <c r="E23" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3102,7 +3160,7 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" si="0"/>
-        <v>50400</v>
+        <v>42000</v>
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3142,7 +3200,7 @@
       </c>
       <c r="D25" s="5">
         <f t="shared" si="0"/>
-        <v>51800</v>
+        <v>43166.666666666664</v>
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3182,7 +3240,7 @@
       </c>
       <c r="D26" s="5">
         <f t="shared" si="0"/>
-        <v>53800</v>
+        <v>44833.333333333336</v>
       </c>
       <c r="E26" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3222,7 +3280,7 @@
       </c>
       <c r="D27" s="5">
         <f t="shared" si="0"/>
-        <v>54200</v>
+        <v>45166.666666666664</v>
       </c>
       <c r="E27" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3262,7 +3320,7 @@
       </c>
       <c r="D28" s="5">
         <f t="shared" si="0"/>
-        <v>58400</v>
+        <v>48666.666666666664</v>
       </c>
       <c r="E28" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3302,7 +3360,7 @@
       </c>
       <c r="D29" s="5">
         <f t="shared" si="0"/>
-        <v>58600</v>
+        <v>48833.333333333336</v>
       </c>
       <c r="E29" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3342,7 +3400,7 @@
       </c>
       <c r="D30" s="5">
         <f t="shared" si="0"/>
-        <v>61400</v>
+        <v>51166.666666666664</v>
       </c>
       <c r="E30" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3382,7 +3440,7 @@
       </c>
       <c r="D31" s="5">
         <f t="shared" si="0"/>
-        <v>88000</v>
+        <v>73333.333333333328</v>
       </c>
       <c r="E31" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3422,7 +3480,7 @@
       </c>
       <c r="D32" s="5">
         <f t="shared" si="0"/>
-        <v>97400</v>
+        <v>81166.666666666672</v>
       </c>
       <c r="E32" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3462,7 +3520,7 @@
       </c>
       <c r="D33" s="5">
         <f t="shared" si="0"/>
-        <v>113200</v>
+        <v>94333.333333333328</v>
       </c>
       <c r="E33" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3502,7 +3560,7 @@
       </c>
       <c r="D34" s="5">
         <f t="shared" si="0"/>
-        <v>160400</v>
+        <v>133666.66666666666</v>
       </c>
       <c r="E34" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3542,7 +3600,7 @@
       </c>
       <c r="D35" s="5">
         <f t="shared" si="0"/>
-        <v>315800</v>
+        <v>263166.66666666669</v>
       </c>
       <c r="E35" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3618,7 +3676,7 @@
       </c>
       <c r="D37" s="5">
         <f t="shared" si="0"/>
-        <v>14000</v>
+        <v>11666.666666666666</v>
       </c>
       <c r="E37" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3658,7 +3716,7 @@
       </c>
       <c r="D38" s="5">
         <f t="shared" si="0"/>
-        <v>20800</v>
+        <v>17333.333333333332</v>
       </c>
       <c r="E38" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3698,7 +3756,7 @@
       </c>
       <c r="D39" s="5">
         <f t="shared" si="0"/>
-        <v>25400</v>
+        <v>21166.666666666668</v>
       </c>
       <c r="E39" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3738,7 +3796,7 @@
       </c>
       <c r="D40" s="5">
         <f t="shared" si="0"/>
-        <v>32400</v>
+        <v>27000</v>
       </c>
       <c r="E40" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3778,7 +3836,7 @@
       </c>
       <c r="D41" s="5">
         <f t="shared" si="0"/>
-        <v>35800</v>
+        <v>29833.333333333332</v>
       </c>
       <c r="E41" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3818,7 +3876,7 @@
       </c>
       <c r="D42" s="5">
         <f t="shared" si="0"/>
-        <v>37200</v>
+        <v>31000</v>
       </c>
       <c r="E42" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3858,7 +3916,7 @@
       </c>
       <c r="D43" s="5">
         <f t="shared" si="0"/>
-        <v>37200</v>
+        <v>31000</v>
       </c>
       <c r="E43" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3898,7 +3956,7 @@
       </c>
       <c r="D44" s="5">
         <f t="shared" si="0"/>
-        <v>40600</v>
+        <v>33833.333333333336</v>
       </c>
       <c r="E44" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3938,7 +3996,7 @@
       </c>
       <c r="D45" s="5">
         <f t="shared" si="0"/>
-        <v>42400</v>
+        <v>35333.333333333336</v>
       </c>
       <c r="E45" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3978,7 +4036,7 @@
       </c>
       <c r="D46" s="5">
         <f t="shared" si="0"/>
-        <v>44400</v>
+        <v>37000</v>
       </c>
       <c r="E46" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4018,7 +4076,7 @@
       </c>
       <c r="D47" s="5">
         <f t="shared" si="0"/>
-        <v>49000</v>
+        <v>40833.333333333336</v>
       </c>
       <c r="E47" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4058,7 +4116,7 @@
       </c>
       <c r="D48" s="5">
         <f t="shared" si="0"/>
-        <v>50200</v>
+        <v>41833.333333333336</v>
       </c>
       <c r="E48" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4098,7 +4156,7 @@
       </c>
       <c r="D49" s="5">
         <f t="shared" si="0"/>
-        <v>51400</v>
+        <v>42833.333333333336</v>
       </c>
       <c r="E49" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4138,7 +4196,7 @@
       </c>
       <c r="D50" s="5">
         <f t="shared" si="0"/>
-        <v>53800</v>
+        <v>44833.333333333336</v>
       </c>
       <c r="E50" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4178,7 +4236,7 @@
       </c>
       <c r="D51" s="5">
         <f t="shared" si="0"/>
-        <v>62800</v>
+        <v>52333.333333333336</v>
       </c>
       <c r="E51" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4218,7 +4276,7 @@
       </c>
       <c r="D52" s="5">
         <f t="shared" si="0"/>
-        <v>65000</v>
+        <v>54166.666666666664</v>
       </c>
       <c r="E52" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4258,7 +4316,7 @@
       </c>
       <c r="D53" s="5">
         <f t="shared" si="0"/>
-        <v>69400</v>
+        <v>57833.333333333336</v>
       </c>
       <c r="E53" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4298,7 +4356,7 @@
       </c>
       <c r="D54" s="5">
         <f t="shared" si="0"/>
-        <v>73800</v>
+        <v>61500</v>
       </c>
       <c r="E54" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4338,7 +4396,7 @@
       </c>
       <c r="D55" s="5">
         <f t="shared" si="0"/>
-        <v>80400</v>
+        <v>67000</v>
       </c>
       <c r="E55" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4378,7 +4436,7 @@
       </c>
       <c r="D56" s="5">
         <f t="shared" si="0"/>
-        <v>94200</v>
+        <v>78500</v>
       </c>
       <c r="E56" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4418,7 +4476,7 @@
       </c>
       <c r="D57" s="5">
         <f t="shared" si="0"/>
-        <v>95200</v>
+        <v>79333.333333333328</v>
       </c>
       <c r="E57" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4458,7 +4516,7 @@
       </c>
       <c r="D58" s="5">
         <f t="shared" si="0"/>
-        <v>98400</v>
+        <v>82000</v>
       </c>
       <c r="E58" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4498,7 +4556,7 @@
       </c>
       <c r="D59" s="5">
         <f t="shared" si="0"/>
-        <v>106200</v>
+        <v>88500</v>
       </c>
       <c r="E59" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4538,7 +4596,7 @@
       </c>
       <c r="D60" s="5">
         <f t="shared" si="0"/>
-        <v>110400</v>
+        <v>92000</v>
       </c>
       <c r="E60" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4578,7 +4636,7 @@
       </c>
       <c r="D61" s="5">
         <f t="shared" si="0"/>
-        <v>297400</v>
+        <v>247833.33333333334</v>
       </c>
       <c r="E61" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4654,7 +4712,7 @@
       </c>
       <c r="D63" s="5">
         <f t="shared" si="0"/>
-        <v>20200</v>
+        <v>16833.333333333332</v>
       </c>
       <c r="E63" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4694,7 +4752,7 @@
       </c>
       <c r="D64" s="5">
         <f t="shared" si="0"/>
-        <v>7600</v>
+        <v>6333.333333333333</v>
       </c>
       <c r="E64" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4734,7 +4792,7 @@
       </c>
       <c r="D65" s="5">
         <f t="shared" si="0"/>
-        <v>27400</v>
+        <v>22833.333333333332</v>
       </c>
       <c r="E65" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4774,7 +4832,7 @@
       </c>
       <c r="D66" s="5">
         <f t="shared" si="0"/>
-        <v>44400</v>
+        <v>37000</v>
       </c>
       <c r="E66" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4813,8 +4871,8 @@
         <v>501000</v>
       </c>
       <c r="D67" s="5">
-        <f t="shared" ref="D67:D130" si="2">C67*0.2</f>
-        <v>100200</v>
+        <f t="shared" ref="D67:D130" si="2">(C67*20)/120</f>
+        <v>83500</v>
       </c>
       <c r="E67" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4854,7 +4912,7 @@
       </c>
       <c r="D68" s="5">
         <f t="shared" si="2"/>
-        <v>85600</v>
+        <v>71333.333333333328</v>
       </c>
       <c r="E68" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4894,7 +4952,7 @@
       </c>
       <c r="D69" s="5">
         <f t="shared" si="2"/>
-        <v>112200</v>
+        <v>93500</v>
       </c>
       <c r="E69" s="4" t="str">
         <f t="shared" ref="E69:E132" si="3">_xlfn.CONCAT(A69," ",B69)</f>
@@ -4934,7 +4992,7 @@
       </c>
       <c r="D70" s="5">
         <f t="shared" si="2"/>
-        <v>315600</v>
+        <v>263000</v>
       </c>
       <c r="E70" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4974,7 +5032,7 @@
       </c>
       <c r="D71" s="5">
         <f t="shared" si="2"/>
-        <v>6800</v>
+        <v>5666.666666666667</v>
       </c>
       <c r="E71" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5014,7 +5072,7 @@
       </c>
       <c r="D72" s="5">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="E72" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5054,7 +5112,7 @@
       </c>
       <c r="D73" s="5">
         <f t="shared" si="2"/>
-        <v>4600</v>
+        <v>3833.3333333333335</v>
       </c>
       <c r="E73" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5092,7 +5150,7 @@
       </c>
       <c r="D74" s="5">
         <f t="shared" si="2"/>
-        <v>19600</v>
+        <v>16333.333333333334</v>
       </c>
       <c r="E74" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5130,7 +5188,7 @@
       </c>
       <c r="D75" s="5">
         <f t="shared" si="2"/>
-        <v>50200</v>
+        <v>41833.333333333336</v>
       </c>
       <c r="E75" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5168,7 +5226,7 @@
       </c>
       <c r="D76" s="5">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="E76" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5206,7 +5264,7 @@
       </c>
       <c r="D77" s="5">
         <f t="shared" si="2"/>
-        <v>2800</v>
+        <v>2333.3333333333335</v>
       </c>
       <c r="E77" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5282,7 +5340,7 @@
       </c>
       <c r="D79" s="5">
         <f t="shared" si="2"/>
-        <v>79800</v>
+        <v>66500</v>
       </c>
       <c r="E79" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5322,7 +5380,7 @@
       </c>
       <c r="D80" s="5">
         <f t="shared" si="2"/>
-        <v>51800</v>
+        <v>43166.666666666664</v>
       </c>
       <c r="E80" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5362,7 +5420,7 @@
       </c>
       <c r="D81" s="5">
         <f t="shared" si="2"/>
-        <v>64800</v>
+        <v>54000</v>
       </c>
       <c r="E81" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5402,7 +5460,7 @@
       </c>
       <c r="D82" s="5">
         <f t="shared" si="2"/>
-        <v>75600</v>
+        <v>63000</v>
       </c>
       <c r="E82" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5442,7 +5500,7 @@
       </c>
       <c r="D83" s="5">
         <f t="shared" si="2"/>
-        <v>93800</v>
+        <v>78166.666666666672</v>
       </c>
       <c r="E83" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5482,7 +5540,7 @@
       </c>
       <c r="D84" s="5">
         <f t="shared" si="2"/>
-        <v>111200</v>
+        <v>92666.666666666672</v>
       </c>
       <c r="E84" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5522,7 +5580,7 @@
       </c>
       <c r="D85" s="5">
         <f t="shared" si="2"/>
-        <v>95200</v>
+        <v>79333.333333333328</v>
       </c>
       <c r="E85" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5562,7 +5620,7 @@
       </c>
       <c r="D86" s="5">
         <f t="shared" si="2"/>
-        <v>95400</v>
+        <v>79500</v>
       </c>
       <c r="E86" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5602,7 +5660,7 @@
       </c>
       <c r="D87" s="5">
         <f t="shared" si="2"/>
-        <v>111200</v>
+        <v>92666.666666666672</v>
       </c>
       <c r="E87" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5642,7 +5700,7 @@
       </c>
       <c r="D88" s="5">
         <f t="shared" si="2"/>
-        <v>139000</v>
+        <v>115833.33333333333</v>
       </c>
       <c r="E88" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5682,7 +5740,7 @@
       </c>
       <c r="D89" s="5">
         <f t="shared" si="2"/>
-        <v>255800</v>
+        <v>213166.66666666666</v>
       </c>
       <c r="E89" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5722,7 +5780,7 @@
       </c>
       <c r="D90" s="5">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>5833.333333333333</v>
       </c>
       <c r="E90" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5762,7 +5820,7 @@
       </c>
       <c r="D91" s="5">
         <f t="shared" si="2"/>
-        <v>35000</v>
+        <v>29166.666666666668</v>
       </c>
       <c r="E91" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5802,7 +5860,7 @@
       </c>
       <c r="D92" s="5">
         <f t="shared" si="2"/>
-        <v>54400</v>
+        <v>45333.333333333336</v>
       </c>
       <c r="E92" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5842,7 +5900,7 @@
       </c>
       <c r="D93" s="5">
         <f t="shared" si="2"/>
-        <v>39600</v>
+        <v>33000</v>
       </c>
       <c r="E93" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5882,7 +5940,7 @@
       </c>
       <c r="D94" s="5">
         <f t="shared" si="2"/>
-        <v>58000</v>
+        <v>48333.333333333336</v>
       </c>
       <c r="E94" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5922,7 +5980,7 @@
       </c>
       <c r="D95" s="5">
         <f t="shared" si="2"/>
-        <v>117800</v>
+        <v>98166.666666666672</v>
       </c>
       <c r="E95" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5962,7 +6020,7 @@
       </c>
       <c r="D96" s="5">
         <f t="shared" si="2"/>
-        <v>148600</v>
+        <v>123833.33333333333</v>
       </c>
       <c r="E96" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6002,7 +6060,7 @@
       </c>
       <c r="D97" s="5">
         <f t="shared" si="2"/>
-        <v>54200</v>
+        <v>45166.666666666664</v>
       </c>
       <c r="E97" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6042,7 +6100,7 @@
       </c>
       <c r="D98" s="5">
         <f t="shared" si="2"/>
-        <v>126400</v>
+        <v>105333.33333333333</v>
       </c>
       <c r="E98" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6082,7 +6140,7 @@
       </c>
       <c r="D99" s="5">
         <f t="shared" si="2"/>
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="E99" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6122,7 +6180,7 @@
       </c>
       <c r="D100" s="5">
         <f t="shared" si="2"/>
-        <v>800</v>
+        <v>666.66666666666663</v>
       </c>
       <c r="E100" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6162,7 +6220,7 @@
       </c>
       <c r="D101" s="5">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>833.33333333333337</v>
       </c>
       <c r="E101" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6202,7 +6260,7 @@
       </c>
       <c r="D102" s="5">
         <f t="shared" si="2"/>
-        <v>8200</v>
+        <v>6833.333333333333</v>
       </c>
       <c r="E102" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6278,7 +6336,7 @@
       </c>
       <c r="D104" s="5">
         <f t="shared" si="2"/>
-        <v>147400</v>
+        <v>122833.33333333333</v>
       </c>
       <c r="E104" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6318,7 +6376,7 @@
       </c>
       <c r="D105" s="5">
         <f t="shared" si="2"/>
-        <v>182000</v>
+        <v>151666.66666666666</v>
       </c>
       <c r="E105" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6356,7 +6414,7 @@
       </c>
       <c r="D106" s="5">
         <f t="shared" si="2"/>
-        <v>48200</v>
+        <v>40166.666666666664</v>
       </c>
       <c r="E106" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6432,7 +6490,7 @@
       </c>
       <c r="D108" s="5">
         <f t="shared" si="2"/>
-        <v>22400</v>
+        <v>18666.666666666668</v>
       </c>
       <c r="E108" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6472,7 +6530,7 @@
       </c>
       <c r="D109" s="5">
         <f t="shared" si="2"/>
-        <v>22600</v>
+        <v>18833.333333333332</v>
       </c>
       <c r="E109" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6512,7 +6570,7 @@
       </c>
       <c r="D110" s="5">
         <f t="shared" si="2"/>
-        <v>24200</v>
+        <v>20166.666666666668</v>
       </c>
       <c r="E110" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6552,7 +6610,7 @@
       </c>
       <c r="D111" s="5">
         <f t="shared" si="2"/>
-        <v>32000</v>
+        <v>26666.666666666668</v>
       </c>
       <c r="E111" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6592,7 +6650,7 @@
       </c>
       <c r="D112" s="5">
         <f t="shared" si="2"/>
-        <v>39000</v>
+        <v>32500</v>
       </c>
       <c r="E112" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6632,7 +6690,7 @@
       </c>
       <c r="D113" s="5">
         <f t="shared" si="2"/>
-        <v>43000</v>
+        <v>35833.333333333336</v>
       </c>
       <c r="E113" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6672,7 +6730,7 @@
       </c>
       <c r="D114" s="5">
         <f t="shared" si="2"/>
-        <v>64200</v>
+        <v>53500</v>
       </c>
       <c r="E114" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6712,7 +6770,7 @@
       </c>
       <c r="D115" s="5">
         <f t="shared" si="2"/>
-        <v>122800</v>
+        <v>102333.33333333333</v>
       </c>
       <c r="E115" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6788,7 +6846,7 @@
       </c>
       <c r="D117" s="5">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="E117" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6828,7 +6886,7 @@
       </c>
       <c r="D118" s="5">
         <f t="shared" si="2"/>
-        <v>6800</v>
+        <v>5666.666666666667</v>
       </c>
       <c r="E118" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6868,7 +6926,7 @@
       </c>
       <c r="D119" s="5">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>5833.333333333333</v>
       </c>
       <c r="E119" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6908,7 +6966,7 @@
       </c>
       <c r="D120" s="5">
         <f t="shared" si="2"/>
-        <v>15400</v>
+        <v>12833.333333333334</v>
       </c>
       <c r="E120" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6948,7 +7006,7 @@
       </c>
       <c r="D121" s="5">
         <f t="shared" si="2"/>
-        <v>144600</v>
+        <v>120500</v>
       </c>
       <c r="E121" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6988,7 +7046,7 @@
       </c>
       <c r="D122" s="5">
         <f t="shared" si="2"/>
-        <v>148400</v>
+        <v>123666.66666666667</v>
       </c>
       <c r="E122" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7028,7 +7086,7 @@
       </c>
       <c r="D123" s="5">
         <f t="shared" si="2"/>
-        <v>155600</v>
+        <v>129666.66666666667</v>
       </c>
       <c r="E123" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7068,7 +7126,7 @@
       </c>
       <c r="D124" s="5">
         <f t="shared" si="2"/>
-        <v>175600</v>
+        <v>146333.33333333334</v>
       </c>
       <c r="E124" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7108,7 +7166,7 @@
       </c>
       <c r="D125" s="5">
         <f t="shared" si="2"/>
-        <v>176600</v>
+        <v>147166.66666666666</v>
       </c>
       <c r="E125" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7148,7 +7206,7 @@
       </c>
       <c r="D126" s="5">
         <f t="shared" si="2"/>
-        <v>182600</v>
+        <v>152166.66666666666</v>
       </c>
       <c r="E126" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7188,7 +7246,7 @@
       </c>
       <c r="D127" s="5">
         <f t="shared" si="2"/>
-        <v>225000</v>
+        <v>187500</v>
       </c>
       <c r="E127" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7262,7 +7320,7 @@
       </c>
       <c r="D129" s="5">
         <f t="shared" si="2"/>
-        <v>6600</v>
+        <v>5500</v>
       </c>
       <c r="E129" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7300,7 +7358,7 @@
       </c>
       <c r="D130" s="5">
         <f t="shared" si="2"/>
-        <v>10400</v>
+        <v>8666.6666666666661</v>
       </c>
       <c r="E130" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7337,8 +7395,8 @@
         <v>97000</v>
       </c>
       <c r="D131" s="5">
-        <f t="shared" ref="D131:D194" si="4">C131*0.2</f>
-        <v>19400</v>
+        <f t="shared" ref="D131:D194" si="4">(C131*20)/120</f>
+        <v>16166.666666666666</v>
       </c>
       <c r="E131" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7416,7 +7474,7 @@
       </c>
       <c r="D133" s="5">
         <f t="shared" si="4"/>
-        <v>26200</v>
+        <v>21833.333333333332</v>
       </c>
       <c r="E133" s="4" t="str">
         <f t="shared" ref="E133:E196" si="5">_xlfn.CONCAT(A133," ",B133)</f>
@@ -7456,7 +7514,7 @@
       </c>
       <c r="D134" s="5">
         <f t="shared" si="4"/>
-        <v>33800</v>
+        <v>28166.666666666668</v>
       </c>
       <c r="E134" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7496,7 +7554,7 @@
       </c>
       <c r="D135" s="5">
         <f t="shared" si="4"/>
-        <v>38000</v>
+        <v>31666.666666666668</v>
       </c>
       <c r="E135" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7536,7 +7594,7 @@
       </c>
       <c r="D136" s="5">
         <f t="shared" si="4"/>
-        <v>38200</v>
+        <v>31833.333333333332</v>
       </c>
       <c r="E136" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7576,7 +7634,7 @@
       </c>
       <c r="D137" s="5">
         <f t="shared" si="4"/>
-        <v>39400</v>
+        <v>32833.333333333336</v>
       </c>
       <c r="E137" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7616,7 +7674,7 @@
       </c>
       <c r="D138" s="5">
         <f t="shared" si="4"/>
-        <v>40200</v>
+        <v>33500</v>
       </c>
       <c r="E138" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7656,7 +7714,7 @@
       </c>
       <c r="D139" s="5">
         <f t="shared" si="4"/>
-        <v>44000</v>
+        <v>36666.666666666664</v>
       </c>
       <c r="E139" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7696,7 +7754,7 @@
       </c>
       <c r="D140" s="5">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>41666.666666666664</v>
       </c>
       <c r="E140" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7736,7 +7794,7 @@
       </c>
       <c r="D141" s="5">
         <f t="shared" si="4"/>
-        <v>51400</v>
+        <v>42833.333333333336</v>
       </c>
       <c r="E141" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7776,7 +7834,7 @@
       </c>
       <c r="D142" s="5">
         <f t="shared" si="4"/>
-        <v>55600</v>
+        <v>46333.333333333336</v>
       </c>
       <c r="E142" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7816,7 +7874,7 @@
       </c>
       <c r="D143" s="5">
         <f t="shared" si="4"/>
-        <v>56000</v>
+        <v>46666.666666666664</v>
       </c>
       <c r="E143" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7856,7 +7914,7 @@
       </c>
       <c r="D144" s="5">
         <f t="shared" si="4"/>
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="E144" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7896,7 +7954,7 @@
       </c>
       <c r="D145" s="5">
         <f t="shared" si="4"/>
-        <v>61000</v>
+        <v>50833.333333333336</v>
       </c>
       <c r="E145" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7936,7 +7994,7 @@
       </c>
       <c r="D146" s="5">
         <f t="shared" si="4"/>
-        <v>67000</v>
+        <v>55833.333333333336</v>
       </c>
       <c r="E146" s="4" t="str">
         <f t="shared" si="5"/>
@@ -7976,7 +8034,7 @@
       </c>
       <c r="D147" s="5">
         <f t="shared" si="4"/>
-        <v>72000</v>
+        <v>60000</v>
       </c>
       <c r="E147" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8016,7 +8074,7 @@
       </c>
       <c r="D148" s="5">
         <f t="shared" si="4"/>
-        <v>85800</v>
+        <v>71500</v>
       </c>
       <c r="E148" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8056,7 +8114,7 @@
       </c>
       <c r="D149" s="5">
         <f t="shared" si="4"/>
-        <v>140200</v>
+        <v>116833.33333333333</v>
       </c>
       <c r="E149" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8132,7 +8190,7 @@
       </c>
       <c r="D151" s="5">
         <f t="shared" si="4"/>
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="E151" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8172,7 +8230,7 @@
       </c>
       <c r="D152" s="5">
         <f t="shared" si="4"/>
-        <v>13800</v>
+        <v>11500</v>
       </c>
       <c r="E152" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8212,7 +8270,7 @@
       </c>
       <c r="D153" s="5">
         <f t="shared" si="4"/>
-        <v>17800</v>
+        <v>14833.333333333334</v>
       </c>
       <c r="E153" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8252,7 +8310,7 @@
       </c>
       <c r="D154" s="5">
         <f t="shared" si="4"/>
-        <v>27600</v>
+        <v>23000</v>
       </c>
       <c r="E154" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8292,7 +8350,7 @@
       </c>
       <c r="D155" s="5">
         <f t="shared" si="4"/>
-        <v>39200</v>
+        <v>32666.666666666668</v>
       </c>
       <c r="E155" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8332,7 +8390,7 @@
       </c>
       <c r="D156" s="5">
         <f t="shared" si="4"/>
-        <v>65800</v>
+        <v>54833.333333333336</v>
       </c>
       <c r="E156" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8372,7 +8430,7 @@
       </c>
       <c r="D157" s="5">
         <f t="shared" si="4"/>
-        <v>59000</v>
+        <v>49166.666666666664</v>
       </c>
       <c r="E157" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8412,7 +8470,7 @@
       </c>
       <c r="D158" s="5">
         <f t="shared" si="4"/>
-        <v>3800</v>
+        <v>3166.6666666666665</v>
       </c>
       <c r="E158" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8452,7 +8510,7 @@
       </c>
       <c r="D159" s="5">
         <f t="shared" si="4"/>
-        <v>5200</v>
+        <v>4333.333333333333</v>
       </c>
       <c r="E159" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8492,7 +8550,7 @@
       </c>
       <c r="D160" s="5">
         <f t="shared" si="4"/>
-        <v>5600</v>
+        <v>4666.666666666667</v>
       </c>
       <c r="E160" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8532,7 +8590,7 @@
       </c>
       <c r="D161" s="5">
         <f t="shared" si="4"/>
-        <v>11200</v>
+        <v>9333.3333333333339</v>
       </c>
       <c r="E161" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8606,7 +8664,7 @@
       </c>
       <c r="D163" s="5">
         <f t="shared" si="4"/>
-        <v>43200</v>
+        <v>36000</v>
       </c>
       <c r="E163" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8644,7 +8702,7 @@
       </c>
       <c r="D164" s="5">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>41666.666666666664</v>
       </c>
       <c r="E164" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8682,7 +8740,7 @@
       </c>
       <c r="D165" s="5">
         <f t="shared" si="4"/>
-        <v>76400</v>
+        <v>63666.666666666664</v>
       </c>
       <c r="E165" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8720,7 +8778,7 @@
       </c>
       <c r="D166" s="5">
         <f t="shared" si="4"/>
-        <v>104800</v>
+        <v>87333.333333333328</v>
       </c>
       <c r="E166" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8758,7 +8816,7 @@
       </c>
       <c r="D167" s="5">
         <f t="shared" si="4"/>
-        <v>151400</v>
+        <v>126166.66666666667</v>
       </c>
       <c r="E167" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8796,7 +8854,7 @@
       </c>
       <c r="D168" s="5">
         <f t="shared" si="4"/>
-        <v>209000</v>
+        <v>174166.66666666666</v>
       </c>
       <c r="E168" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8834,7 +8892,7 @@
       </c>
       <c r="D169" s="5">
         <f t="shared" si="4"/>
-        <v>313600</v>
+        <v>261333.33333333334</v>
       </c>
       <c r="E169" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8872,7 +8930,7 @@
       </c>
       <c r="D170" s="5">
         <f t="shared" si="4"/>
-        <v>23400</v>
+        <v>19500</v>
       </c>
       <c r="E170" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8910,7 +8968,7 @@
       </c>
       <c r="D171" s="5">
         <f t="shared" si="4"/>
-        <v>31600</v>
+        <v>26333.333333333332</v>
       </c>
       <c r="E171" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8948,7 +9006,7 @@
       </c>
       <c r="D172" s="5">
         <f t="shared" si="4"/>
-        <v>52000</v>
+        <v>43333.333333333336</v>
       </c>
       <c r="E172" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8986,7 +9044,7 @@
       </c>
       <c r="D173" s="5">
         <f t="shared" si="4"/>
-        <v>38600</v>
+        <v>32166.666666666668</v>
       </c>
       <c r="E173" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9024,7 +9082,7 @@
       </c>
       <c r="D174" s="5">
         <f t="shared" si="4"/>
-        <v>54000</v>
+        <v>45000</v>
       </c>
       <c r="E174" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9062,7 +9120,7 @@
       </c>
       <c r="D175" s="5">
         <f t="shared" si="4"/>
-        <v>62800</v>
+        <v>52333.333333333336</v>
       </c>
       <c r="E175" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9100,7 +9158,7 @@
       </c>
       <c r="D176" s="5">
         <f t="shared" si="4"/>
-        <v>178800</v>
+        <v>149000</v>
       </c>
       <c r="E176" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9138,7 +9196,7 @@
       </c>
       <c r="D177" s="5">
         <f t="shared" si="4"/>
-        <v>208000</v>
+        <v>173333.33333333334</v>
       </c>
       <c r="E177" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9176,7 +9234,7 @@
       </c>
       <c r="D178" s="5">
         <f t="shared" si="4"/>
-        <v>1600</v>
+        <v>1333.3333333333333</v>
       </c>
       <c r="E178" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9214,7 +9272,7 @@
       </c>
       <c r="D179" s="5">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="E179" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9252,7 +9310,7 @@
       </c>
       <c r="D180" s="5">
         <f t="shared" si="4"/>
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="E180" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9292,7 +9350,7 @@
       </c>
       <c r="D181" s="5">
         <f t="shared" si="4"/>
-        <v>2200</v>
+        <v>1833.3333333333333</v>
       </c>
       <c r="E181" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9332,7 +9390,7 @@
       </c>
       <c r="D182" s="5">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="E182" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9372,7 +9430,7 @@
       </c>
       <c r="D183" s="5">
         <f t="shared" si="4"/>
-        <v>5200</v>
+        <v>4333.333333333333</v>
       </c>
       <c r="E183" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9448,7 +9506,7 @@
       </c>
       <c r="D185" s="5">
         <f t="shared" si="4"/>
-        <v>4400</v>
+        <v>3666.6666666666665</v>
       </c>
       <c r="E185" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9488,7 +9546,7 @@
       </c>
       <c r="D186" s="5">
         <f t="shared" si="4"/>
-        <v>12600</v>
+        <v>10500</v>
       </c>
       <c r="E186" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9528,7 +9586,7 @@
       </c>
       <c r="D187" s="5">
         <f t="shared" si="4"/>
-        <v>12600</v>
+        <v>10500</v>
       </c>
       <c r="E187" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9568,7 +9626,7 @@
       </c>
       <c r="D188" s="5">
         <f t="shared" si="4"/>
-        <v>5200</v>
+        <v>4333.333333333333</v>
       </c>
       <c r="E188" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9608,7 +9666,7 @@
       </c>
       <c r="D189" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>4166.666666666667</v>
       </c>
       <c r="E189" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9648,7 +9706,7 @@
       </c>
       <c r="D190" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>4166.666666666667</v>
       </c>
       <c r="E190" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9688,7 +9746,7 @@
       </c>
       <c r="D191" s="5">
         <f t="shared" si="4"/>
-        <v>9200</v>
+        <v>7666.666666666667</v>
       </c>
       <c r="E191" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9764,7 +9822,7 @@
       </c>
       <c r="D193" s="5">
         <f t="shared" si="4"/>
-        <v>7400</v>
+        <v>6166.666666666667</v>
       </c>
       <c r="E193" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9804,7 +9862,7 @@
       </c>
       <c r="D194" s="5">
         <f t="shared" si="4"/>
-        <v>7400</v>
+        <v>6166.666666666667</v>
       </c>
       <c r="E194" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9843,8 +9901,8 @@
         <v>11000</v>
       </c>
       <c r="D195" s="5">
-        <f t="shared" ref="D195:D258" si="6">C195*0.2</f>
-        <v>2200</v>
+        <f t="shared" ref="D195:D258" si="6">(C195*20)/120</f>
+        <v>1833.3333333333333</v>
       </c>
       <c r="E195" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9884,7 +9942,7 @@
       </c>
       <c r="D196" s="5">
         <f t="shared" si="6"/>
-        <v>9200</v>
+        <v>7666.666666666667</v>
       </c>
       <c r="E196" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9924,7 +9982,7 @@
       </c>
       <c r="D197" s="5">
         <f t="shared" si="6"/>
-        <v>3800</v>
+        <v>3166.6666666666665</v>
       </c>
       <c r="E197" s="4" t="str">
         <f t="shared" ref="E197:E260" si="7">_xlfn.CONCAT(A197," ",B197)</f>
@@ -9964,7 +10022,7 @@
       </c>
       <c r="D198" s="5">
         <f t="shared" si="6"/>
-        <v>2600</v>
+        <v>2166.6666666666665</v>
       </c>
       <c r="E198" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10004,7 +10062,7 @@
       </c>
       <c r="D199" s="5">
         <f t="shared" si="6"/>
-        <v>5200</v>
+        <v>4333.333333333333</v>
       </c>
       <c r="E199" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10044,7 +10102,7 @@
       </c>
       <c r="D200" s="5">
         <f t="shared" si="6"/>
-        <v>5200</v>
+        <v>4333.333333333333</v>
       </c>
       <c r="E200" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10084,7 +10142,7 @@
       </c>
       <c r="D201" s="5">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="E201" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10124,7 +10182,7 @@
       </c>
       <c r="D202" s="5">
         <f t="shared" si="6"/>
-        <v>9800</v>
+        <v>8166.666666666667</v>
       </c>
       <c r="E202" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10164,7 +10222,7 @@
       </c>
       <c r="D203" s="5">
         <f t="shared" si="6"/>
-        <v>6600</v>
+        <v>5500</v>
       </c>
       <c r="E203" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10204,7 +10262,7 @@
       </c>
       <c r="D204" s="5">
         <f t="shared" si="6"/>
-        <v>13600</v>
+        <v>11333.333333333334</v>
       </c>
       <c r="E204" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10244,7 +10302,7 @@
       </c>
       <c r="D205" s="5">
         <f t="shared" si="6"/>
-        <v>6600</v>
+        <v>5500</v>
       </c>
       <c r="E205" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10284,7 +10342,7 @@
       </c>
       <c r="D206" s="5">
         <f t="shared" si="6"/>
-        <v>29400</v>
+        <v>24500</v>
       </c>
       <c r="E206" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10324,7 +10382,7 @@
       </c>
       <c r="D207" s="5">
         <f t="shared" si="6"/>
-        <v>30200</v>
+        <v>25166.666666666668</v>
       </c>
       <c r="E207" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10364,7 +10422,7 @@
       </c>
       <c r="D208" s="5">
         <f t="shared" si="6"/>
-        <v>39400</v>
+        <v>32833.333333333336</v>
       </c>
       <c r="E208" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10404,7 +10462,7 @@
       </c>
       <c r="D209" s="5">
         <f t="shared" si="6"/>
-        <v>62000</v>
+        <v>51666.666666666664</v>
       </c>
       <c r="E209" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10444,7 +10502,7 @@
       </c>
       <c r="D210" s="5">
         <f t="shared" si="6"/>
-        <v>54200</v>
+        <v>45166.666666666664</v>
       </c>
       <c r="E210" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10484,7 +10542,7 @@
       </c>
       <c r="D211" s="5">
         <f t="shared" si="6"/>
-        <v>91600</v>
+        <v>76333.333333333328</v>
       </c>
       <c r="E211" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10524,7 +10582,7 @@
       </c>
       <c r="D212" s="5">
         <f t="shared" si="6"/>
-        <v>82400</v>
+        <v>68666.666666666672</v>
       </c>
       <c r="E212" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10564,7 +10622,7 @@
       </c>
       <c r="D213" s="5">
         <f t="shared" si="6"/>
-        <v>161400</v>
+        <v>134500</v>
       </c>
       <c r="E213" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10602,7 +10660,7 @@
       </c>
       <c r="D214" s="5">
         <f t="shared" si="6"/>
-        <v>800</v>
+        <v>666.66666666666663</v>
       </c>
       <c r="E214" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10640,7 +10698,7 @@
       </c>
       <c r="D215" s="5">
         <f t="shared" si="6"/>
-        <v>16200</v>
+        <v>13500</v>
       </c>
       <c r="E215" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10678,7 +10736,7 @@
       </c>
       <c r="D216" s="5">
         <f t="shared" si="6"/>
-        <v>25000</v>
+        <v>20833.333333333332</v>
       </c>
       <c r="E216" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10716,7 +10774,7 @@
       </c>
       <c r="D217" s="5">
         <f t="shared" si="6"/>
-        <v>19600</v>
+        <v>16333.333333333334</v>
       </c>
       <c r="E217" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10754,7 +10812,7 @@
       </c>
       <c r="D218" s="5">
         <f t="shared" si="6"/>
-        <v>28000</v>
+        <v>23333.333333333332</v>
       </c>
       <c r="E218" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10794,7 +10852,7 @@
       </c>
       <c r="D219" s="5">
         <f t="shared" si="6"/>
-        <v>1000</v>
+        <v>833.33333333333337</v>
       </c>
       <c r="E219" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10834,7 +10892,7 @@
       </c>
       <c r="D220" s="5">
         <f t="shared" si="6"/>
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E220" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10872,7 +10930,7 @@
       </c>
       <c r="D221" s="5">
         <f t="shared" si="6"/>
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="E221" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10912,7 +10970,7 @@
       </c>
       <c r="D222" s="5">
         <f t="shared" si="6"/>
-        <v>1600</v>
+        <v>1333.3333333333333</v>
       </c>
       <c r="E222" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10950,7 +11008,7 @@
       </c>
       <c r="D223" s="5">
         <f t="shared" si="6"/>
-        <v>2200</v>
+        <v>1833.3333333333333</v>
       </c>
       <c r="E223" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10990,7 +11048,7 @@
       </c>
       <c r="D224" s="5">
         <f t="shared" si="6"/>
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="E224" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11030,7 +11088,7 @@
       </c>
       <c r="D225" s="5">
         <f t="shared" si="6"/>
-        <v>2800</v>
+        <v>2333.3333333333335</v>
       </c>
       <c r="E225" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11070,7 +11128,7 @@
       </c>
       <c r="D226" s="5">
         <f t="shared" si="6"/>
-        <v>4600</v>
+        <v>3833.3333333333335</v>
       </c>
       <c r="E226" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11110,7 +11168,7 @@
       </c>
       <c r="D227" s="5">
         <f t="shared" si="6"/>
-        <v>10200</v>
+        <v>8500</v>
       </c>
       <c r="E227" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11186,7 +11244,7 @@
       </c>
       <c r="D229" s="5">
         <f t="shared" si="6"/>
-        <v>39600</v>
+        <v>33000</v>
       </c>
       <c r="E229" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11226,7 +11284,7 @@
       </c>
       <c r="D230" s="5">
         <f t="shared" si="6"/>
-        <v>33400</v>
+        <v>27833.333333333332</v>
       </c>
       <c r="E230" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11266,7 +11324,7 @@
       </c>
       <c r="D231" s="5">
         <f t="shared" si="6"/>
-        <v>19000</v>
+        <v>15833.333333333334</v>
       </c>
       <c r="E231" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11306,7 +11364,7 @@
       </c>
       <c r="D232" s="5">
         <f t="shared" si="6"/>
-        <v>28200</v>
+        <v>23500</v>
       </c>
       <c r="E232" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11346,7 +11404,7 @@
       </c>
       <c r="D233" s="5">
         <f t="shared" si="6"/>
-        <v>70200</v>
+        <v>58500</v>
       </c>
       <c r="E233" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11386,7 +11444,7 @@
       </c>
       <c r="D234" s="5">
         <f t="shared" si="6"/>
-        <v>82800</v>
+        <v>69000</v>
       </c>
       <c r="E234" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11426,7 +11484,7 @@
       </c>
       <c r="D235" s="5">
         <f t="shared" si="6"/>
-        <v>12200</v>
+        <v>10166.666666666666</v>
       </c>
       <c r="E235" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11466,7 +11524,7 @@
       </c>
       <c r="D236" s="5">
         <f t="shared" si="6"/>
-        <v>178600</v>
+        <v>148833.33333333334</v>
       </c>
       <c r="E236" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11506,7 +11564,7 @@
       </c>
       <c r="D237" s="5">
         <f t="shared" si="6"/>
-        <v>197000</v>
+        <v>164166.66666666666</v>
       </c>
       <c r="E237" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11546,7 +11604,7 @@
       </c>
       <c r="D238" s="5">
         <f t="shared" si="6"/>
-        <v>59200</v>
+        <v>49333.333333333336</v>
       </c>
       <c r="E238" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11586,7 +11644,7 @@
       </c>
       <c r="D239" s="5">
         <f t="shared" si="6"/>
-        <v>137000</v>
+        <v>114166.66666666667</v>
       </c>
       <c r="E239" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11626,7 +11684,7 @@
       </c>
       <c r="D240" s="5">
         <f t="shared" si="6"/>
-        <v>227600</v>
+        <v>189666.66666666666</v>
       </c>
       <c r="E240" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11666,7 +11724,7 @@
       </c>
       <c r="D241" s="5">
         <f t="shared" si="6"/>
-        <v>266800</v>
+        <v>222333.33333333334</v>
       </c>
       <c r="E241" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11706,7 +11764,7 @@
       </c>
       <c r="D242" s="5">
         <f t="shared" si="6"/>
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="E242" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11746,7 +11804,7 @@
       </c>
       <c r="D243" s="5">
         <f t="shared" si="6"/>
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="E243" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11786,7 +11844,7 @@
       </c>
       <c r="D244" s="5">
         <f t="shared" si="6"/>
-        <v>81200</v>
+        <v>67666.666666666672</v>
       </c>
       <c r="E244" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11826,7 +11884,7 @@
       </c>
       <c r="D245" s="5">
         <f t="shared" si="6"/>
-        <v>39400</v>
+        <v>32833.333333333336</v>
       </c>
       <c r="E245" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11866,7 +11924,7 @@
       </c>
       <c r="D246" s="5">
         <f t="shared" si="6"/>
-        <v>129000</v>
+        <v>107500</v>
       </c>
       <c r="E246" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11906,7 +11964,7 @@
       </c>
       <c r="D247" s="5">
         <f t="shared" si="6"/>
-        <v>129000</v>
+        <v>107500</v>
       </c>
       <c r="E247" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11946,7 +12004,7 @@
       </c>
       <c r="D248" s="5">
         <f t="shared" si="6"/>
-        <v>51800</v>
+        <v>43166.666666666664</v>
       </c>
       <c r="E248" s="4" t="str">
         <f t="shared" si="7"/>
@@ -11986,7 +12044,7 @@
       </c>
       <c r="D249" s="5">
         <f t="shared" si="6"/>
-        <v>129200</v>
+        <v>107666.66666666667</v>
       </c>
       <c r="E249" s="4" t="str">
         <f t="shared" si="7"/>
@@ -12026,7 +12084,7 @@
       </c>
       <c r="D250" s="5">
         <f t="shared" si="6"/>
-        <v>51800</v>
+        <v>43166.666666666664</v>
       </c>
       <c r="E250" s="4" t="str">
         <f t="shared" si="7"/>
@@ -12066,7 +12124,7 @@
       </c>
       <c r="D251" s="5">
         <f t="shared" si="6"/>
-        <v>129000</v>
+        <v>107500</v>
       </c>
       <c r="E251" s="4" t="str">
         <f t="shared" si="7"/>
@@ -12106,7 +12164,7 @@
       </c>
       <c r="D252" s="5">
         <f t="shared" si="6"/>
-        <v>175800</v>
+        <v>146500</v>
       </c>
       <c r="E252" s="4" t="str">
         <f t="shared" si="7"/>
@@ -12146,7 +12204,7 @@
       </c>
       <c r="D253" s="5">
         <f t="shared" si="6"/>
-        <v>51800</v>
+        <v>43166.666666666664</v>
       </c>
       <c r="E253" s="4" t="str">
         <f t="shared" si="7"/>
@@ -12186,7 +12244,7 @@
       </c>
       <c r="D254" s="5">
         <f t="shared" si="6"/>
-        <v>54800</v>
+        <v>45666.666666666664</v>
       </c>
       <c r="E254" s="4" t="str">
         <f t="shared" si="7"/>
@@ -12226,7 +12284,7 @@
       </c>
       <c r="D255" s="5">
         <f t="shared" si="6"/>
-        <v>195000</v>
+        <v>162500</v>
       </c>
       <c r="E255" s="4" t="str">
         <f t="shared" si="7"/>
@@ -12266,7 +12324,7 @@
       </c>
       <c r="D256" s="5">
         <f t="shared" si="6"/>
-        <v>96000</v>
+        <v>80000</v>
       </c>
       <c r="E256" s="4" t="str">
         <f t="shared" si="7"/>
@@ -12306,7 +12364,7 @@
       </c>
       <c r="D257" s="5">
         <f t="shared" si="6"/>
-        <v>237400</v>
+        <v>197833.33333333334</v>
       </c>
       <c r="E257" s="4" t="str">
         <f t="shared" si="7"/>
@@ -12346,7 +12404,7 @@
       </c>
       <c r="D258" s="5">
         <f t="shared" si="6"/>
-        <v>166400</v>
+        <v>138666.66666666666</v>
       </c>
       <c r="E258" s="4" t="str">
         <f t="shared" si="7"/>
@@ -12385,8 +12443,8 @@
         <v>227000</v>
       </c>
       <c r="D259" s="5">
-        <f t="shared" ref="D259:D322" si="8">C259*0.2</f>
-        <v>45400</v>
+        <f t="shared" ref="D259:D322" si="8">(C259*20)/120</f>
+        <v>37833.333333333336</v>
       </c>
       <c r="E259" s="4" t="str">
         <f t="shared" si="7"/>
@@ -12426,7 +12484,7 @@
       </c>
       <c r="D260" s="5">
         <f t="shared" si="8"/>
-        <v>19600</v>
+        <v>16333.333333333334</v>
       </c>
       <c r="E260" s="4" t="str">
         <f t="shared" si="7"/>
@@ -12466,7 +12524,7 @@
       </c>
       <c r="D261" s="5">
         <f t="shared" si="8"/>
-        <v>238000</v>
+        <v>198333.33333333334</v>
       </c>
       <c r="E261" s="4" t="str">
         <f t="shared" ref="E261:E324" si="9">_xlfn.CONCAT(A261," ",B261)</f>
@@ -12506,7 +12564,7 @@
       </c>
       <c r="D262" s="5">
         <f t="shared" si="8"/>
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="E262" s="4" t="str">
         <f t="shared" si="9"/>
@@ -12546,7 +12604,7 @@
       </c>
       <c r="D263" s="5">
         <f t="shared" si="8"/>
-        <v>481400</v>
+        <v>401166.66666666669</v>
       </c>
       <c r="E263" s="4" t="str">
         <f t="shared" si="9"/>
@@ -12586,7 +12644,7 @@
       </c>
       <c r="D264" s="5">
         <f t="shared" si="8"/>
-        <v>204200</v>
+        <v>170166.66666666666</v>
       </c>
       <c r="E264" s="4" t="str">
         <f t="shared" si="9"/>
@@ -12626,7 +12684,7 @@
       </c>
       <c r="D265" s="5">
         <f t="shared" si="8"/>
-        <v>129200</v>
+        <v>107666.66666666667</v>
       </c>
       <c r="E265" s="4" t="str">
         <f t="shared" si="9"/>
@@ -12666,7 +12724,7 @@
       </c>
       <c r="D266" s="5">
         <f t="shared" si="8"/>
-        <v>51800</v>
+        <v>43166.666666666664</v>
       </c>
       <c r="E266" s="4" t="str">
         <f t="shared" si="9"/>
@@ -12706,7 +12764,7 @@
       </c>
       <c r="D267" s="5">
         <f t="shared" si="8"/>
-        <v>38600</v>
+        <v>32166.666666666668</v>
       </c>
       <c r="E267" s="4" t="str">
         <f t="shared" si="9"/>
@@ -12746,7 +12804,7 @@
       </c>
       <c r="D268" s="5">
         <f t="shared" si="8"/>
-        <v>19200</v>
+        <v>16000</v>
       </c>
       <c r="E268" s="4" t="str">
         <f t="shared" si="9"/>
@@ -12786,7 +12844,7 @@
       </c>
       <c r="D269" s="5">
         <f t="shared" si="8"/>
-        <v>118800</v>
+        <v>99000</v>
       </c>
       <c r="E269" s="4" t="str">
         <f t="shared" si="9"/>
@@ -12826,7 +12884,7 @@
       </c>
       <c r="D270" s="5">
         <f t="shared" si="8"/>
-        <v>56400</v>
+        <v>47000</v>
       </c>
       <c r="E270" s="4" t="str">
         <f t="shared" si="9"/>
@@ -12866,7 +12924,7 @@
       </c>
       <c r="D271" s="5">
         <f t="shared" si="8"/>
-        <v>362800</v>
+        <v>302333.33333333331</v>
       </c>
       <c r="E271" s="4" t="str">
         <f t="shared" si="9"/>
@@ -12906,7 +12964,7 @@
       </c>
       <c r="D272" s="5">
         <f t="shared" si="8"/>
-        <v>38600</v>
+        <v>32166.666666666668</v>
       </c>
       <c r="E272" s="4" t="str">
         <f t="shared" si="9"/>
@@ -12946,7 +13004,7 @@
       </c>
       <c r="D273" s="5">
         <f t="shared" si="8"/>
-        <v>130800</v>
+        <v>109000</v>
       </c>
       <c r="E273" s="4" t="str">
         <f t="shared" si="9"/>
@@ -12986,7 +13044,7 @@
       </c>
       <c r="D274" s="5">
         <f t="shared" si="8"/>
-        <v>145800</v>
+        <v>121500</v>
       </c>
       <c r="E274" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13026,7 +13084,7 @@
       </c>
       <c r="D275" s="5">
         <f t="shared" si="8"/>
-        <v>126400</v>
+        <v>105333.33333333333</v>
       </c>
       <c r="E275" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13066,7 +13124,7 @@
       </c>
       <c r="D276" s="5">
         <f t="shared" si="8"/>
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="E276" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13106,7 +13164,7 @@
       </c>
       <c r="D277" s="5">
         <f t="shared" si="8"/>
-        <v>191000</v>
+        <v>159166.66666666666</v>
       </c>
       <c r="E277" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13146,7 +13204,7 @@
       </c>
       <c r="D278" s="5">
         <f t="shared" si="8"/>
-        <v>225200</v>
+        <v>187666.66666666666</v>
       </c>
       <c r="E278" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13222,7 +13280,7 @@
       </c>
       <c r="D280" s="5">
         <f t="shared" si="8"/>
-        <v>59400</v>
+        <v>49500</v>
       </c>
       <c r="E280" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13262,7 +13320,7 @@
       </c>
       <c r="D281" s="5">
         <f t="shared" si="8"/>
-        <v>129200</v>
+        <v>107666.66666666667</v>
       </c>
       <c r="E281" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13302,7 +13360,7 @@
       </c>
       <c r="D282" s="5">
         <f t="shared" si="8"/>
-        <v>142800</v>
+        <v>119000</v>
       </c>
       <c r="E282" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13342,7 +13400,7 @@
       </c>
       <c r="D283" s="5">
         <f t="shared" si="8"/>
-        <v>161400</v>
+        <v>134500</v>
       </c>
       <c r="E283" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13382,7 +13440,7 @@
       </c>
       <c r="D284" s="5">
         <f t="shared" si="8"/>
-        <v>118200</v>
+        <v>98500</v>
       </c>
       <c r="E284" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13422,7 +13480,7 @@
       </c>
       <c r="D285" s="5">
         <f t="shared" si="8"/>
-        <v>183600</v>
+        <v>153000</v>
       </c>
       <c r="E285" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13462,7 +13520,7 @@
       </c>
       <c r="D286" s="5">
         <f t="shared" si="8"/>
-        <v>253000</v>
+        <v>210833.33333333334</v>
       </c>
       <c r="E286" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13502,7 +13560,7 @@
       </c>
       <c r="D287" s="5">
         <f t="shared" si="8"/>
-        <v>51200</v>
+        <v>42666.666666666664</v>
       </c>
       <c r="E287" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13542,7 +13600,7 @@
       </c>
       <c r="D288" s="5">
         <f t="shared" si="8"/>
-        <v>74200</v>
+        <v>61833.333333333336</v>
       </c>
       <c r="E288" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13582,7 +13640,7 @@
       </c>
       <c r="D289" s="5">
         <f t="shared" si="8"/>
-        <v>91400</v>
+        <v>76166.666666666672</v>
       </c>
       <c r="E289" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13622,7 +13680,7 @@
       </c>
       <c r="D290" s="5">
         <f t="shared" si="8"/>
-        <v>128400</v>
+        <v>107000</v>
       </c>
       <c r="E290" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13662,7 +13720,7 @@
       </c>
       <c r="D291" s="5">
         <f t="shared" si="8"/>
-        <v>314200</v>
+        <v>261833.33333333334</v>
       </c>
       <c r="E291" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13702,7 +13760,7 @@
       </c>
       <c r="D292" s="5">
         <f t="shared" si="8"/>
-        <v>151200</v>
+        <v>126000</v>
       </c>
       <c r="E292" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13742,7 +13800,7 @@
       </c>
       <c r="D293" s="5">
         <f t="shared" si="8"/>
-        <v>314200</v>
+        <v>261833.33333333334</v>
       </c>
       <c r="E293" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13782,7 +13840,7 @@
       </c>
       <c r="D294" s="5">
         <f t="shared" si="8"/>
-        <v>543200</v>
+        <v>452666.66666666669</v>
       </c>
       <c r="E294" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13822,7 +13880,7 @@
       </c>
       <c r="D295" s="5">
         <f t="shared" si="8"/>
-        <v>128000</v>
+        <v>106666.66666666667</v>
       </c>
       <c r="E295" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13862,7 +13920,7 @@
       </c>
       <c r="D296" s="5">
         <f t="shared" si="8"/>
-        <v>51000</v>
+        <v>42500</v>
       </c>
       <c r="E296" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13902,7 +13960,7 @@
       </c>
       <c r="D297" s="5">
         <f t="shared" si="8"/>
-        <v>82600</v>
+        <v>68833.333333333328</v>
       </c>
       <c r="E297" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13942,7 +14000,7 @@
       </c>
       <c r="D298" s="5">
         <f t="shared" si="8"/>
-        <v>72200</v>
+        <v>60166.666666666664</v>
       </c>
       <c r="E298" s="4" t="str">
         <f t="shared" si="9"/>
@@ -13982,7 +14040,7 @@
       </c>
       <c r="D299" s="5">
         <f t="shared" si="8"/>
-        <v>108800</v>
+        <v>90666.666666666672</v>
       </c>
       <c r="E299" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14022,7 +14080,7 @@
       </c>
       <c r="D300" s="5">
         <f t="shared" si="8"/>
-        <v>135600</v>
+        <v>113000</v>
       </c>
       <c r="E300" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14062,7 +14120,7 @@
       </c>
       <c r="D301" s="5">
         <f t="shared" si="8"/>
-        <v>210800</v>
+        <v>175666.66666666666</v>
       </c>
       <c r="E301" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14102,7 +14160,7 @@
       </c>
       <c r="D302" s="5">
         <f t="shared" si="8"/>
-        <v>96400</v>
+        <v>80333.333333333328</v>
       </c>
       <c r="E302" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14142,7 +14200,7 @@
       </c>
       <c r="D303" s="5">
         <f t="shared" si="8"/>
-        <v>144400</v>
+        <v>120333.33333333333</v>
       </c>
       <c r="E303" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14182,7 +14240,7 @@
       </c>
       <c r="D304" s="5">
         <f t="shared" si="8"/>
-        <v>53800</v>
+        <v>44833.333333333336</v>
       </c>
       <c r="E304" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14222,7 +14280,7 @@
       </c>
       <c r="D305" s="5">
         <f t="shared" si="8"/>
-        <v>74200</v>
+        <v>61833.333333333336</v>
       </c>
       <c r="E305" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14262,7 +14320,7 @@
       </c>
       <c r="D306" s="5">
         <f t="shared" si="8"/>
-        <v>92400</v>
+        <v>77000</v>
       </c>
       <c r="E306" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14302,7 +14360,7 @@
       </c>
       <c r="D307" s="5">
         <f t="shared" si="8"/>
-        <v>108200</v>
+        <v>90166.666666666672</v>
       </c>
       <c r="E307" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14342,7 +14400,7 @@
       </c>
       <c r="D308" s="5">
         <f t="shared" si="8"/>
-        <v>129600</v>
+        <v>108000</v>
       </c>
       <c r="E308" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14382,7 +14440,7 @@
       </c>
       <c r="D309" s="5">
         <f t="shared" si="8"/>
-        <v>128800</v>
+        <v>107333.33333333333</v>
       </c>
       <c r="E309" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14422,7 +14480,7 @@
       </c>
       <c r="D310" s="5">
         <f t="shared" si="8"/>
-        <v>180400</v>
+        <v>150333.33333333334</v>
       </c>
       <c r="E310" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14462,7 +14520,7 @@
       </c>
       <c r="D311" s="5">
         <f t="shared" si="8"/>
-        <v>144400</v>
+        <v>120333.33333333333</v>
       </c>
       <c r="E311" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14502,7 +14560,7 @@
       </c>
       <c r="D312" s="5">
         <f t="shared" si="8"/>
-        <v>291400</v>
+        <v>242833.33333333334</v>
       </c>
       <c r="E312" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14542,7 +14600,7 @@
       </c>
       <c r="D313" s="5">
         <f t="shared" si="8"/>
-        <v>357200</v>
+        <v>297666.66666666669</v>
       </c>
       <c r="E313" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14618,7 +14676,7 @@
       </c>
       <c r="D315" s="5">
         <f t="shared" si="8"/>
-        <v>17000</v>
+        <v>14166.666666666666</v>
       </c>
       <c r="E315" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14658,7 +14716,7 @@
       </c>
       <c r="D316" s="5">
         <f t="shared" si="8"/>
-        <v>16800</v>
+        <v>14000</v>
       </c>
       <c r="E316" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14698,7 +14756,7 @@
       </c>
       <c r="D317" s="5">
         <f t="shared" si="8"/>
-        <v>23000</v>
+        <v>19166.666666666668</v>
       </c>
       <c r="E317" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14738,7 +14796,7 @@
       </c>
       <c r="D318" s="5">
         <f t="shared" si="8"/>
-        <v>30400</v>
+        <v>25333.333333333332</v>
       </c>
       <c r="E318" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14778,7 +14836,7 @@
       </c>
       <c r="D319" s="5">
         <f t="shared" si="8"/>
-        <v>16400</v>
+        <v>13666.666666666666</v>
       </c>
       <c r="E319" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14818,7 +14876,7 @@
       </c>
       <c r="D320" s="5">
         <f t="shared" si="8"/>
-        <v>16800</v>
+        <v>14000</v>
       </c>
       <c r="E320" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14858,7 +14916,7 @@
       </c>
       <c r="D321" s="5">
         <f t="shared" si="8"/>
-        <v>23000</v>
+        <v>19166.666666666668</v>
       </c>
       <c r="E321" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14898,7 +14956,7 @@
       </c>
       <c r="D322" s="5">
         <f t="shared" si="8"/>
-        <v>30600</v>
+        <v>25500</v>
       </c>
       <c r="E322" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14937,8 +14995,8 @@
         <v>80000</v>
       </c>
       <c r="D323" s="5">
-        <f t="shared" ref="D323:D353" si="10">C323*0.2</f>
-        <v>16000</v>
+        <f t="shared" ref="D323:D353" si="10">(C323*20)/120</f>
+        <v>13333.333333333334</v>
       </c>
       <c r="E323" s="4" t="str">
         <f t="shared" si="9"/>
@@ -14978,7 +15036,7 @@
       </c>
       <c r="D324" s="5">
         <f t="shared" si="10"/>
-        <v>20400</v>
+        <v>17000</v>
       </c>
       <c r="E324" s="4" t="str">
         <f t="shared" si="9"/>
@@ -15054,7 +15112,7 @@
       </c>
       <c r="D326" s="5">
         <f t="shared" si="10"/>
-        <v>39600</v>
+        <v>33000</v>
       </c>
       <c r="E326" s="4" t="str">
         <f t="shared" si="11"/>
@@ -15094,7 +15152,7 @@
       </c>
       <c r="D327" s="5">
         <f t="shared" si="10"/>
-        <v>46600</v>
+        <v>38833.333333333336</v>
       </c>
       <c r="E327" s="4" t="str">
         <f t="shared" si="11"/>
@@ -15134,7 +15192,7 @@
       </c>
       <c r="D328" s="5">
         <f t="shared" si="10"/>
-        <v>55800</v>
+        <v>46500</v>
       </c>
       <c r="E328" s="4" t="str">
         <f t="shared" si="11"/>
@@ -15174,7 +15232,7 @@
       </c>
       <c r="D329" s="5">
         <f t="shared" si="10"/>
-        <v>59600</v>
+        <v>49666.666666666664</v>
       </c>
       <c r="E329" s="4" t="str">
         <f t="shared" si="11"/>
@@ -15214,7 +15272,7 @@
       </c>
       <c r="D330" s="5">
         <f t="shared" si="10"/>
-        <v>95600</v>
+        <v>79666.666666666672</v>
       </c>
       <c r="E330" s="4" t="str">
         <f t="shared" si="11"/>
@@ -15254,7 +15312,7 @@
       </c>
       <c r="D331" s="5">
         <f t="shared" si="10"/>
-        <v>125200</v>
+        <v>104333.33333333333</v>
       </c>
       <c r="E331" s="4" t="str">
         <f t="shared" si="11"/>
@@ -15294,7 +15352,7 @@
       </c>
       <c r="D332" s="5">
         <f t="shared" si="10"/>
-        <v>151400</v>
+        <v>126166.66666666667</v>
       </c>
       <c r="E332" s="4" t="str">
         <f t="shared" si="11"/>
@@ -15334,7 +15392,7 @@
       </c>
       <c r="D333" s="5">
         <f t="shared" si="10"/>
-        <v>225600</v>
+        <v>188000</v>
       </c>
       <c r="E333" s="4" t="str">
         <f t="shared" si="11"/>
@@ -15374,7 +15432,7 @@
       </c>
       <c r="D334" s="5">
         <f t="shared" si="10"/>
-        <v>305400</v>
+        <v>254500</v>
       </c>
       <c r="E334" s="4" t="str">
         <f t="shared" si="11"/>
@@ -15414,7 +15472,7 @@
       </c>
       <c r="D335" s="5">
         <f t="shared" si="10"/>
-        <v>826800</v>
+        <v>689000</v>
       </c>
       <c r="E335" s="4" t="str">
         <f t="shared" si="11"/>
@@ -15454,7 +15512,7 @@
       </c>
       <c r="D336" s="5">
         <f t="shared" si="10"/>
-        <v>1370000</v>
+        <v>1141666.6666666667</v>
       </c>
       <c r="E336" s="4" t="str">
         <f t="shared" si="11"/>
@@ -15494,7 +15552,7 @@
       </c>
       <c r="D337" s="5">
         <f t="shared" si="10"/>
-        <v>2342400</v>
+        <v>1952000</v>
       </c>
       <c r="E337" s="4" t="str">
         <f t="shared" si="11"/>
@@ -34101,6 +34159,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -34108,8 +34167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA993"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -34125,7 +34184,9 @@
         <f>IF(Table_1[[#This Row],[Column2]]=0,"RESPINTO",IF(Table_1[[#This Row],[Column2]]=40,"SUFFICIENTE",IF(Table_1[[#This Row],[Column2]]=60,"DISCRETO",IF(Table_1[[#This Row],[Column2]]=70,"BUONO","NO"))))</f>
         <v>NO</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>576</v>
+      </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="6" t="s">
@@ -34168,7 +34229,10 @@
         <f>IF(Table_1[[#This Row],[Column2]]=0,"RESPINTO",IF(Table_1[[#This Row],[Column2]]=40,"SUFFICIENTE",IF(Table_1[[#This Row],[Column2]]=60,"DISCRETO",IF(Table_1[[#This Row],[Column2]]=70,"BUONO","NO"))))</f>
         <v>SUFFICIENTE</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="8" t="str">
+        <f>_xlfn.IFS(Table_1[[#This Row],[Column2]]=40,"SUFFICIENTE",Table_1[[#This Row],[Column2]]=60,"DISCRETO",Table_1[[#This Row],[Column2]]=70,"BUONO",Table_1[[#This Row],[Column2]]&lt;40,"RESPINTO")</f>
+        <v>SUFFICIENTE</v>
+      </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="7">
@@ -34210,6 +34274,10 @@
         <f>IF(Table_1[[#This Row],[Column2]]=0,"RESPINTO",IF(Table_1[[#This Row],[Column2]]=40,"SUFFICIENTE",IF(Table_1[[#This Row],[Column2]]=60,"DISCRETO",IF(Table_1[[#This Row],[Column2]]=70,"BUONO","NO"))))</f>
         <v>DISCRETO</v>
       </c>
+      <c r="D3" t="str">
+        <f>_xlfn.IFS(Table_1[[#This Row],[Column2]]=40,"SUFFICIENTE",Table_1[[#This Row],[Column2]]=60,"DISCRETO",Table_1[[#This Row],[Column2]]=70,"BUONO",Table_1[[#This Row],[Column2]]&lt;40,"RESPINTO")</f>
+        <v>DISCRETO</v>
+      </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="7">
@@ -34251,6 +34319,10 @@
         <f>IF(Table_1[[#This Row],[Column2]]=0,"RESPINTO",IF(Table_1[[#This Row],[Column2]]=40,"SUFFICIENTE",IF(Table_1[[#This Row],[Column2]]=60,"DISCRETO",IF(Table_1[[#This Row],[Column2]]=70,"BUONO","NO"))))</f>
         <v>DISCRETO</v>
       </c>
+      <c r="D4" t="str">
+        <f>_xlfn.IFS(Table_1[[#This Row],[Column2]]=40,"SUFFICIENTE",Table_1[[#This Row],[Column2]]=60,"DISCRETO",Table_1[[#This Row],[Column2]]=70,"BUONO",Table_1[[#This Row],[Column2]]&lt;40,"RESPINTO")</f>
+        <v>DISCRETO</v>
+      </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="7">
@@ -34292,6 +34364,10 @@
         <f>IF(Table_1[[#This Row],[Column2]]=0,"RESPINTO",IF(Table_1[[#This Row],[Column2]]=40,"SUFFICIENTE",IF(Table_1[[#This Row],[Column2]]=60,"DISCRETO",IF(Table_1[[#This Row],[Column2]]=70,"BUONO","NO"))))</f>
         <v>SUFFICIENTE</v>
       </c>
+      <c r="D5" t="str">
+        <f>_xlfn.IFS(Table_1[[#This Row],[Column2]]=40,"SUFFICIENTE",Table_1[[#This Row],[Column2]]=60,"DISCRETO",Table_1[[#This Row],[Column2]]=70,"BUONO",Table_1[[#This Row],[Column2]]&lt;40,"RESPINTO")</f>
+        <v>SUFFICIENTE</v>
+      </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="7">
@@ -34333,6 +34409,10 @@
         <f>IF(Table_1[[#This Row],[Column2]]=0,"RESPINTO",IF(Table_1[[#This Row],[Column2]]=40,"SUFFICIENTE",IF(Table_1[[#This Row],[Column2]]=60,"DISCRETO",IF(Table_1[[#This Row],[Column2]]=70,"BUONO","NO"))))</f>
         <v>BUONO</v>
       </c>
+      <c r="D6" t="str">
+        <f>_xlfn.IFS(Table_1[[#This Row],[Column2]]=40,"SUFFICIENTE",Table_1[[#This Row],[Column2]]=60,"DISCRETO",Table_1[[#This Row],[Column2]]=70,"BUONO",Table_1[[#This Row],[Column2]]&lt;40,"RESPINTO")</f>
+        <v>BUONO</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="7">
@@ -34374,6 +34454,10 @@
         <f>IF(Table_1[[#This Row],[Column2]]=0,"RESPINTO",IF(Table_1[[#This Row],[Column2]]=40,"SUFFICIENTE",IF(Table_1[[#This Row],[Column2]]=60,"DISCRETO",IF(Table_1[[#This Row],[Column2]]=70,"BUONO","NO"))))</f>
         <v>RESPINTO</v>
       </c>
+      <c r="D7" t="str">
+        <f>_xlfn.IFS(Table_1[[#This Row],[Column2]]=40,"SUFFICIENTE",Table_1[[#This Row],[Column2]]=60,"DISCRETO",Table_1[[#This Row],[Column2]]=70,"BUONO",Table_1[[#This Row],[Column2]]&lt;40,"RESPINTO")</f>
+        <v>RESPINTO</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="7">
@@ -34413,6 +34497,10 @@
       </c>
       <c r="C8" s="7" t="str">
         <f>IF(Table_1[[#This Row],[Column2]]=0,"RESPINTO",IF(Table_1[[#This Row],[Column2]]=40,"SUFFICIENTE",IF(Table_1[[#This Row],[Column2]]=60,"DISCRETO",IF(Table_1[[#This Row],[Column2]]=70,"BUONO","NO"))))</f>
+        <v>RESPINTO</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.IFS(Table_1[[#This Row],[Column2]]=40,"SUFFICIENTE",Table_1[[#This Row],[Column2]]=60,"DISCRETO",Table_1[[#This Row],[Column2]]=70,"BUONO",Table_1[[#This Row],[Column2]]&lt;40,"RESPINTO")</f>
         <v>RESPINTO</v>
       </c>
       <c r="E8" s="8"/>
@@ -62004,7 +62092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
